--- a/Olah Nilai/4C/Nilai UAS Praktikum Kecerdasan Buatan 4C.xlsx
+++ b/Olah Nilai/4C/Nilai UAS Praktikum Kecerdasan Buatan 4C.xlsx
@@ -149,118 +149,104 @@
     <t>NPM</t>
   </si>
   <si>
-    <t>2210631170109@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170108@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170110@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170111@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170112@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170113@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170114@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170115@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170017@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170019@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170020@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170021@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170022@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170023@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170024@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170080@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170081@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170082@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170083@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170084@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170085@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170086@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170087@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170088@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2210631170139@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>1910631170121@student.unsika.ac.id</t>
-  </si>
-  <si>
-    <t>2110631170117@student.unsika.ac.id</t>
-  </si>
-  <si>
     <t>Emil Maulana</t>
   </si>
   <si>
     <t>Restu Tunggal Pramudia</t>
+  </si>
+  <si>
+    <t>2210631170108</t>
+  </si>
+  <si>
+    <t>2210631170109</t>
+  </si>
+  <si>
+    <t>2210631170110</t>
+  </si>
+  <si>
+    <t>2210631170111</t>
+  </si>
+  <si>
+    <t>2210631170112</t>
+  </si>
+  <si>
+    <t>2210631170113</t>
+  </si>
+  <si>
+    <t>2210631170114</t>
+  </si>
+  <si>
+    <t>2210631170115</t>
+  </si>
+  <si>
+    <t>2210631170017</t>
+  </si>
+  <si>
+    <t>2210631170019</t>
+  </si>
+  <si>
+    <t>2210631170020</t>
+  </si>
+  <si>
+    <t>2210631170021</t>
+  </si>
+  <si>
+    <t>2210631170022</t>
+  </si>
+  <si>
+    <t>2210631170023</t>
+  </si>
+  <si>
+    <t>2210631170024</t>
+  </si>
+  <si>
+    <t>2210631170080</t>
+  </si>
+  <si>
+    <t>2210631170081</t>
+  </si>
+  <si>
+    <t>2210631170082</t>
+  </si>
+  <si>
+    <t>2210631170083</t>
+  </si>
+  <si>
+    <t>2210631170084</t>
+  </si>
+  <si>
+    <t>2210631170085</t>
+  </si>
+  <si>
+    <t>2210631170086</t>
+  </si>
+  <si>
+    <t>2210631170087</t>
+  </si>
+  <si>
+    <t>2210631170088</t>
+  </si>
+  <si>
+    <t>2210631170139</t>
+  </si>
+  <si>
+    <t>1910631170121</t>
+  </si>
+  <si>
+    <t>2110631170117</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -280,23 +266,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="17">
@@ -782,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -823,8 +804,8 @@
       <c r="A2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>40</v>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -839,7 +820,7 @@
         <v>90</v>
       </c>
       <c r="G2">
-        <f>(D2*0.15)+(E2*0.05)+(F2*0.8)</f>
+        <f t="shared" ref="G2:G9" si="0">(D2*0.15)+(E2*0.05)+(F2*0.8)</f>
         <v>83.25</v>
       </c>
     </row>
@@ -847,8 +828,8 @@
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
+      <c r="B3" t="s">
+        <v>42</v>
       </c>
       <c r="C3" t="s">
         <v>8</v>
@@ -863,7 +844,7 @@
         <v>95</v>
       </c>
       <c r="G3">
-        <f>(D3*0.15)+(E3*0.05)+(F3*0.8)</f>
+        <f t="shared" si="0"/>
         <v>95.25</v>
       </c>
     </row>
@@ -871,8 +852,8 @@
       <c r="A4" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>41</v>
+      <c r="B4" t="s">
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>30</v>
@@ -887,7 +868,7 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <f>(D4*0.15)+(E4*0.05)+(F4*0.8)</f>
+        <f t="shared" si="0"/>
         <v>94.25</v>
       </c>
     </row>
@@ -895,8 +876,8 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -911,7 +892,7 @@
         <v>95</v>
       </c>
       <c r="G5">
-        <f>(D5*0.15)+(E5*0.05)+(F5*0.8)</f>
+        <f t="shared" si="0"/>
         <v>89.75</v>
       </c>
     </row>
@@ -919,8 +900,8 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>43</v>
+      <c r="B6" t="s">
+        <v>45</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -935,7 +916,7 @@
         <v>90</v>
       </c>
       <c r="G6">
-        <f>(D6*0.15)+(E6*0.05)+(F6*0.8)</f>
+        <f t="shared" si="0"/>
         <v>83.25</v>
       </c>
     </row>
@@ -943,8 +924,8 @@
       <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>44</v>
+      <c r="B7" t="s">
+        <v>46</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -959,7 +940,7 @@
         <v>92</v>
       </c>
       <c r="G7">
-        <f>(D7*0.15)+(E7*0.05)+(F7*0.8)</f>
+        <f t="shared" si="0"/>
         <v>92.850000000000009</v>
       </c>
     </row>
@@ -967,8 +948,8 @@
       <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>45</v>
+      <c r="B8" t="s">
+        <v>47</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
@@ -983,7 +964,7 @@
         <v>90</v>
       </c>
       <c r="G8">
-        <f>(D8*0.15)+(E8*0.05)+(F8*0.8)</f>
+        <f t="shared" si="0"/>
         <v>86.25</v>
       </c>
     </row>
@@ -991,8 +972,8 @@
       <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>46</v>
+      <c r="B9" t="s">
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1007,16 +988,16 @@
         <v>95</v>
       </c>
       <c r="G9">
-        <f>(D9*0.15)+(E9*0.05)+(F9*0.8)</f>
+        <f t="shared" si="0"/>
         <v>92.25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="B10" s="1" t="s">
-        <v>47</v>
+      <c r="B10" t="s">
+        <v>49</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1035,8 +1016,8 @@
       <c r="A11" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>48</v>
+      <c r="B11" t="s">
+        <v>50</v>
       </c>
       <c r="C11" t="s">
         <v>19</v>
@@ -1051,7 +1032,7 @@
         <v>93</v>
       </c>
       <c r="G11">
-        <f>(D11*0.15)+(E11*0.05)+(F11*0.8)</f>
+        <f t="shared" ref="G11:G26" si="1">(D11*0.15)+(E11*0.05)+(F11*0.8)</f>
         <v>85.65</v>
       </c>
     </row>
@@ -1059,8 +1040,8 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>49</v>
+      <c r="B12" t="s">
+        <v>51</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
@@ -1075,7 +1056,7 @@
         <v>91</v>
       </c>
       <c r="G12">
-        <f>(D12*0.15)+(E12*0.05)+(F12*0.8)</f>
+        <f t="shared" si="1"/>
         <v>84.05</v>
       </c>
     </row>
@@ -1083,8 +1064,8 @@
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>50</v>
+      <c r="B13" t="s">
+        <v>52</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -1099,7 +1080,7 @@
         <v>95</v>
       </c>
       <c r="G13">
-        <f>(D13*0.15)+(E13*0.05)+(F13*0.8)</f>
+        <f t="shared" si="1"/>
         <v>87.25</v>
       </c>
     </row>
@@ -1107,8 +1088,8 @@
       <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>51</v>
+      <c r="B14" t="s">
+        <v>53</v>
       </c>
       <c r="C14" t="s">
         <v>27</v>
@@ -1123,7 +1104,7 @@
         <v>95</v>
       </c>
       <c r="G14">
-        <f>(D14*0.15)+(E14*0.05)+(F14*0.8)</f>
+        <f t="shared" si="1"/>
         <v>88.25</v>
       </c>
     </row>
@@ -1131,8 +1112,8 @@
       <c r="A15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>52</v>
+      <c r="B15" t="s">
+        <v>54</v>
       </c>
       <c r="C15" t="s">
         <v>35</v>
@@ -1147,7 +1128,7 @@
         <v>90</v>
       </c>
       <c r="G15">
-        <f>(D15*0.15)+(E15*0.05)+(F15*0.8)</f>
+        <f t="shared" si="1"/>
         <v>91.25</v>
       </c>
     </row>
@@ -1155,8 +1136,8 @@
       <c r="A16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>53</v>
+      <c r="B16" t="s">
+        <v>55</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
@@ -1171,7 +1152,7 @@
         <v>92</v>
       </c>
       <c r="G16">
-        <f>(D16*0.15)+(E16*0.05)+(F16*0.8)</f>
+        <f t="shared" si="1"/>
         <v>84.850000000000009</v>
       </c>
     </row>
@@ -1179,8 +1160,8 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>54</v>
+      <c r="B17" t="s">
+        <v>56</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1195,7 +1176,7 @@
         <v>90</v>
       </c>
       <c r="G17">
-        <f>(D17*0.15)+(E17*0.05)+(F17*0.8)</f>
+        <f t="shared" si="1"/>
         <v>83.25</v>
       </c>
     </row>
@@ -1203,8 +1184,8 @@
       <c r="A18" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>55</v>
+      <c r="B18" t="s">
+        <v>57</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1219,7 +1200,7 @@
         <v>90</v>
       </c>
       <c r="G18">
-        <f>(D18*0.15)+(E18*0.05)+(F18*0.8)</f>
+        <f t="shared" si="1"/>
         <v>91.25</v>
       </c>
     </row>
@@ -1227,8 +1208,8 @@
       <c r="A19" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>56</v>
+      <c r="B19" t="s">
+        <v>58</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -1243,7 +1224,7 @@
         <v>95</v>
       </c>
       <c r="G19">
-        <f>(D19*0.15)+(E19*0.05)+(F19*0.8)</f>
+        <f t="shared" si="1"/>
         <v>87.25</v>
       </c>
     </row>
@@ -1251,8 +1232,8 @@
       <c r="A20" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>57</v>
+      <c r="B20" t="s">
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -1267,7 +1248,7 @@
         <v>95</v>
       </c>
       <c r="G20">
-        <f>(D20*0.15)+(E20*0.05)+(F20*0.8)</f>
+        <f t="shared" si="1"/>
         <v>91.25</v>
       </c>
     </row>
@@ -1275,8 +1256,8 @@
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>58</v>
+      <c r="B21" t="s">
+        <v>60</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -1291,7 +1272,7 @@
         <v>92</v>
       </c>
       <c r="G21">
-        <f>(D21*0.15)+(E21*0.05)+(F21*0.8)</f>
+        <f t="shared" si="1"/>
         <v>87.850000000000009</v>
       </c>
     </row>
@@ -1299,8 +1280,8 @@
       <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>59</v>
+      <c r="B22" t="s">
+        <v>61</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1315,7 +1296,7 @@
         <v>92</v>
       </c>
       <c r="G22">
-        <f>(D22*0.15)+(E22*0.05)+(F22*0.8)</f>
+        <f t="shared" si="1"/>
         <v>92.850000000000009</v>
       </c>
     </row>
@@ -1323,8 +1304,8 @@
       <c r="A23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="1" t="s">
-        <v>60</v>
+      <c r="B23" t="s">
+        <v>62</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -1339,7 +1320,7 @@
         <v>92</v>
       </c>
       <c r="G23">
-        <f>(D23*0.15)+(E23*0.05)+(F23*0.8)</f>
+        <f t="shared" si="1"/>
         <v>84.850000000000009</v>
       </c>
     </row>
@@ -1347,8 +1328,8 @@
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>61</v>
+      <c r="B24" t="s">
+        <v>63</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1363,7 +1344,7 @@
         <v>90</v>
       </c>
       <c r="G24">
-        <f>(D24*0.15)+(E24*0.05)+(F24*0.8)</f>
+        <f t="shared" si="1"/>
         <v>83.25</v>
       </c>
     </row>
@@ -1371,8 +1352,8 @@
       <c r="A25" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
+      <c r="B25" t="s">
+        <v>64</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -1387,7 +1368,7 @@
         <v>100</v>
       </c>
       <c r="G25">
-        <f>(D25*0.15)+(E25*0.05)+(F25*0.8)</f>
+        <f t="shared" si="1"/>
         <v>94.25</v>
       </c>
     </row>
@@ -1395,8 +1376,8 @@
       <c r="A26" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>63</v>
+      <c r="B26" t="s">
+        <v>65</v>
       </c>
       <c r="C26" t="s">
         <v>32</v>
@@ -1411,16 +1392,16 @@
         <v>100</v>
       </c>
       <c r="G26">
-        <f>(D26*0.15)+(E26*0.05)+(F26*0.8)</f>
+        <f t="shared" si="1"/>
         <v>94.25</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="B27" s="1" t="s">
-        <v>64</v>
+      <c r="B27" t="s">
+        <v>66</v>
       </c>
       <c r="C27" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -1439,8 +1420,8 @@
       <c r="A28" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>65</v>
+      <c r="B28" t="s">
+        <v>67</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
@@ -1465,11 +1446,6 @@
       <sortCondition ref="C1:C26"/>
     </sortState>
   </autoFilter>
-  <hyperlinks>
-    <hyperlink ref="B13" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B9" r:id="rId3"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Olah Nilai/4C/Nilai UAS Praktikum Kecerdasan Buatan 4C.xlsx
+++ b/Olah Nilai/4C/Nilai UAS Praktikum Kecerdasan Buatan 4C.xlsx
@@ -764,7 +764,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -820,7 +820,7 @@
         <v>90</v>
       </c>
       <c r="G2">
-        <f t="shared" ref="G2:G9" si="0">(D2*0.15)+(E2*0.05)+(F2*0.8)</f>
+        <f>(D2*0.15)+(E2*0.05)+(F2*0.8)</f>
         <v>83.25</v>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>95</v>
       </c>
       <c r="G3">
-        <f t="shared" si="0"/>
+        <f>(D3*0.15)+(E3*0.05)+(F3*0.8)</f>
         <v>95.25</v>
       </c>
     </row>
@@ -868,7 +868,7 @@
         <v>100</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
+        <f>(D4*0.15)+(E4*0.05)+(F4*0.8)</f>
         <v>94.25</v>
       </c>
     </row>
@@ -892,7 +892,7 @@
         <v>95</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
+        <f>(D5*0.15)+(E5*0.05)+(F5*0.8)</f>
         <v>89.75</v>
       </c>
     </row>
@@ -916,7 +916,7 @@
         <v>90</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
+        <f>(D6*0.15)+(E6*0.05)+(F6*0.8)</f>
         <v>83.25</v>
       </c>
     </row>
@@ -940,7 +940,7 @@
         <v>92</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f>(D7*0.15)+(E7*0.05)+(F7*0.8)</f>
         <v>92.850000000000009</v>
       </c>
     </row>
@@ -964,7 +964,7 @@
         <v>90</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f>(D8*0.15)+(E8*0.05)+(F8*0.8)</f>
         <v>86.25</v>
       </c>
     </row>
@@ -988,52 +988,52 @@
         <v>95</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
+        <f>(D9*0.15)+(E9*0.05)+(F9*0.8)</f>
         <v>92.25</v>
       </c>
     </row>
     <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>39</v>
+      <c r="C10" t="s">
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <f>(D10*0.15)+(E10*0.05)+(F10*0.8)</f>
+        <v>85.65</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" t="s">
-        <v>19</v>
+      <c r="C11" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <f t="shared" ref="G11:G26" si="1">(D11*0.15)+(E11*0.05)+(F11*0.8)</f>
-        <v>85.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1056,7 +1056,7 @@
         <v>91</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f>(D12*0.15)+(E12*0.05)+(F12*0.8)</f>
         <v>84.05</v>
       </c>
     </row>
@@ -1080,7 +1080,7 @@
         <v>95</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f>(D13*0.15)+(E13*0.05)+(F13*0.8)</f>
         <v>87.25</v>
       </c>
     </row>
@@ -1104,7 +1104,7 @@
         <v>95</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f>(D14*0.15)+(E14*0.05)+(F14*0.8)</f>
         <v>88.25</v>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
         <v>90</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f>(D15*0.15)+(E15*0.05)+(F15*0.8)</f>
         <v>91.25</v>
       </c>
     </row>
@@ -1152,7 +1152,7 @@
         <v>92</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f>(D16*0.15)+(E16*0.05)+(F16*0.8)</f>
         <v>84.850000000000009</v>
       </c>
     </row>
@@ -1161,7 +1161,7 @@
         <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1176,7 +1176,7 @@
         <v>90</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f>(D17*0.15)+(E17*0.05)+(F17*0.8)</f>
         <v>83.25</v>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>14</v>
@@ -1200,7 +1200,7 @@
         <v>90</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f>(D18*0.15)+(E18*0.05)+(F18*0.8)</f>
         <v>91.25</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
         <v>95</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f>(D19*0.15)+(E19*0.05)+(F19*0.8)</f>
         <v>87.25</v>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
         <v>25</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C20" t="s">
         <v>26</v>
@@ -1248,7 +1248,7 @@
         <v>95</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f>(D20*0.15)+(E20*0.05)+(F20*0.8)</f>
         <v>91.25</v>
       </c>
     </row>
@@ -1257,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -1272,7 +1272,7 @@
         <v>92</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f>(D21*0.15)+(E21*0.05)+(F21*0.8)</f>
         <v>87.850000000000009</v>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -1296,7 +1296,7 @@
         <v>92</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f>(D22*0.15)+(E22*0.05)+(F22*0.8)</f>
         <v>92.850000000000009</v>
       </c>
     </row>
@@ -1305,7 +1305,7 @@
         <v>20</v>
       </c>
       <c r="B23" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
         <v>24</v>
@@ -1320,7 +1320,7 @@
         <v>92</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f>(D23*0.15)+(E23*0.05)+(F23*0.8)</f>
         <v>84.850000000000009</v>
       </c>
     </row>
@@ -1329,7 +1329,7 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>37</v>
@@ -1344,7 +1344,7 @@
         <v>90</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f>(D24*0.15)+(E24*0.05)+(F24*0.8)</f>
         <v>83.25</v>
       </c>
     </row>
@@ -1353,7 +1353,7 @@
         <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
@@ -1368,7 +1368,7 @@
         <v>100</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f>(D25*0.15)+(E25*0.05)+(F25*0.8)</f>
         <v>94.25</v>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
         <v>100</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f>(D26*0.15)+(E26*0.05)+(F26*0.8)</f>
         <v>94.25</v>
       </c>
     </row>
@@ -1442,7 +1442,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G26">
-    <sortState ref="A2:G26">
+    <sortState ref="A2:G28">
       <sortCondition ref="C1:C26"/>
     </sortState>
   </autoFilter>
